--- a/excel/templates/billing_department.xlsx
+++ b/excel/templates/billing_department.xlsx
@@ -24,8 +24,58 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Ｑ藤脇　孝太</author>
+  </authors>
+  <commentList>
+    <comment ref="J2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>請求金額＋税抜交通費</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Ｑ藤脇　孝太</author>
+  </authors>
+  <commentList>
+    <comment ref="E2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>請求金額＋税抜交通費</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>本部</t>
     <rPh sb="0" eb="2">
@@ -123,19 +173,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>税抜金額</t>
-    <rPh sb="0" eb="1">
-      <t>ゼイ</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>ヌ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>キンガク</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>消費税</t>
     <rPh sb="0" eb="3">
       <t>ショウヒゼイ</t>
@@ -168,13 +205,30 @@
       <t>ギンコウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>交通費</t>
+    <rPh sb="0" eb="3">
+      <t>コウツウヒ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>交通費(税)</t>
+    <rPh sb="0" eb="3">
+      <t>コウツウヒ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ゼイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -220,6 +274,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
@@ -575,8 +637,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -586,10 +648,10 @@
     <col min="4" max="4" width="27.625" customWidth="1"/>
     <col min="5" max="6" width="15.625" customWidth="1"/>
     <col min="7" max="7" width="50.625" customWidth="1"/>
-    <col min="8" max="12" width="15.625" customWidth="1"/>
+    <col min="8" max="14" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:14" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -609,61 +671,75 @@
         <v>5</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="27.625" customWidth="1"/>
-    <col min="3" max="7" width="15.625" customWidth="1"/>
+    <col min="3" max="9" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/excel/templates/billing_department.xlsx
+++ b/excel/templates/billing_department.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\PyDev\tp-paperwork\excel\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daiki_takeuchi\PycharmProjects\tp-paperwork\excel\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -271,17 +271,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="メイリオ"/>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Meiryo UI"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
@@ -323,12 +323,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -640,18 +643,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="3" width="15.625" customWidth="1"/>
-    <col min="4" max="4" width="27.625" customWidth="1"/>
-    <col min="5" max="6" width="15.625" customWidth="1"/>
-    <col min="7" max="7" width="50.625" customWidth="1"/>
-    <col min="8" max="14" width="15.625" customWidth="1"/>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="9.25" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="30.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="50.625" style="2" customWidth="1"/>
+    <col min="8" max="9" width="15.625" style="2" customWidth="1"/>
+    <col min="10" max="12" width="20.625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="12.75" style="2" customWidth="1"/>
+    <col min="14" max="14" width="17" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,13 +715,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="27.625" customWidth="1"/>
-    <col min="3" max="9" width="15.625" customWidth="1"/>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="37.625" style="2" customWidth="1"/>
+    <col min="3" max="8" width="15.625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="17" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>11</v>
       </c>

--- a/excel/templates/billing_department.xlsx
+++ b/excel/templates/billing_department.xlsx
@@ -14,6 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,58 +25,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Ｑ藤脇　孝太</author>
-  </authors>
-  <commentList>
-    <comment ref="J2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>請求金額＋税抜交通費</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Ｑ藤脇　孝太</author>
-  </authors>
-  <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>請求金額＋税抜交通費</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="18">
   <si>
     <t>本部</t>
     <rPh sb="0" eb="2">
@@ -228,7 +179,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -271,14 +222,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Meiryo UI"/>
@@ -286,12 +229,18 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99CCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -327,11 +276,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -640,119 +589,185 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="9.25" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="30.625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15.625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="50.625" style="2" customWidth="1"/>
-    <col min="8" max="9" width="15.625" style="2" customWidth="1"/>
-    <col min="10" max="12" width="20.625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="12.75" style="2" customWidth="1"/>
-    <col min="14" max="14" width="17" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="3.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="30.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="50.625" style="1" customWidth="1"/>
+    <col min="8" max="9" width="15.625" style="1" customWidth="1"/>
+    <col min="10" max="12" width="20.625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.75" style="1" customWidth="1"/>
+    <col min="14" max="14" width="17" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="2" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="37.625" style="2" customWidth="1"/>
-    <col min="3" max="8" width="15.625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="17" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="3.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="37.625" style="1" customWidth="1"/>
+    <col min="3" max="8" width="15.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="2" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:N2"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="3.625" customWidth="1"/>
+    <col min="2" max="2" width="9.25" customWidth="1"/>
+    <col min="3" max="3" width="15.625" customWidth="1"/>
+    <col min="4" max="4" width="30.625" customWidth="1"/>
+    <col min="5" max="5" width="10.625" customWidth="1"/>
+    <col min="6" max="6" width="15.625" customWidth="1"/>
+    <col min="7" max="7" width="50.625" customWidth="1"/>
+    <col min="8" max="9" width="15.625" customWidth="1"/>
+    <col min="10" max="12" width="20.625" customWidth="1"/>
+    <col min="13" max="13" width="12.75" customWidth="1"/>
+    <col min="14" max="14" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>